--- a/assets/model_accu_scores.xlsx
+++ b/assets/model_accu_scores.xlsx
@@ -480,28 +480,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.865</v>
+        <v>0.909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.842</v>
+        <v>0.885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.856</v>
+        <v>0.881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.745</v>
+        <v>0.819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.842</v>
+        <v>0.875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.694</v>
+        <v>0.725</v>
       </c>
       <c r="H2" t="n">
-        <v>0.778</v>
+        <v>0.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0.841</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="3">
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C3" t="n">
-        <v>0.954</v>
+        <v>0.978</v>
       </c>
       <c r="D3" t="n">
         <v>0.992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.893</v>
+        <v>0.922</v>
       </c>
       <c r="F3" t="n">
-        <v>0.865</v>
+        <v>0.889</v>
       </c>
       <c r="G3" t="n">
         <v>0.8070000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.861</v>
+        <v>0.906</v>
       </c>
       <c r="I3" t="n">
-        <v>0.954</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +538,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.886</v>
+        <v>0.944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.985</v>
+        <v>0.999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.952</v>
+        <v>0.968</v>
       </c>
       <c r="F4" t="n">
-        <v>0.881</v>
+        <v>0.929</v>
       </c>
       <c r="G4" t="n">
-        <v>0.831</v>
+        <v>0.804</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="I4" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -567,28 +567,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.965</v>
+        <v>0.962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.949</v>
+        <v>0.964</v>
       </c>
       <c r="D5" t="n">
-        <v>0.949</v>
+        <v>0.955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.891</v>
+        <v>0.91</v>
       </c>
       <c r="F5" t="n">
-        <v>0.912</v>
+        <v>0.914</v>
       </c>
       <c r="G5" t="n">
-        <v>0.656</v>
+        <v>0.65</v>
       </c>
       <c r="H5" t="n">
-        <v>0.842</v>
+        <v>0.893</v>
       </c>
       <c r="I5" t="n">
-        <v>0.951</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +596,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.832</v>
+        <v>0.842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778</v>
+        <v>0.828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.786</v>
+        <v>0.836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.721</v>
+        <v>0.828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.792</v>
+        <v>0.801</v>
       </c>
       <c r="G6" t="n">
-        <v>0.736</v>
+        <v>0.788</v>
       </c>
       <c r="H6" t="n">
-        <v>0.722</v>
+        <v>0.794</v>
       </c>
       <c r="I6" t="n">
-        <v>0.781</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="7">
@@ -625,28 +625,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.883</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>0.991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.984</v>
+        <v>0.988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.864</v>
+        <v>0.908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.871</v>
+        <v>0.894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.846</v>
+        <v>0.931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.97</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="8">
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.93</v>
+        <v>0.955</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.976</v>
+        <v>0.994</v>
       </c>
       <c r="E8" t="n">
-        <v>0.825</v>
+        <v>0.905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.876</v>
+        <v>0.895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.854</v>
+        <v>0.895</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9">
@@ -683,28 +683,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.91</v>
+        <v>0.945</v>
       </c>
       <c r="C9" t="n">
-        <v>0.946</v>
+        <v>0.984</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.966</v>
       </c>
       <c r="E9" t="n">
-        <v>0.909</v>
+        <v>0.919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.882</v>
+        <v>0.896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.795</v>
+        <v>0.829</v>
       </c>
       <c r="H9" t="n">
-        <v>0.864</v>
+        <v>0.921</v>
       </c>
       <c r="I9" t="n">
-        <v>0.946</v>
+        <v>0.985</v>
       </c>
     </row>
   </sheetData>
